--- a/target/classes/testData/CogmentoTestData.xlsx
+++ b/target/classes/testData/CogmentoTestData.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15500"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
     <sheet name="calls" sheetId="2" r:id="rId2"/>
-    <sheet name="calendar" sheetId="3" r:id="rId3"/>
-    <sheet name="documents" sheetId="4" r:id="rId4"/>
+    <sheet name="documents" sheetId="4" r:id="rId3"/>
+    <sheet name="companies" sheetId="5" r:id="rId4"/>
+    <sheet name="calendar" sheetId="6" r:id="rId5"/>
+    <sheet name="deal" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="152">
   <si>
     <t>firstname</t>
   </si>
@@ -212,21 +214,302 @@
   </si>
   <si>
     <t>cal</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Do this first</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Street Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Phone Number Type</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Email Type</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Social Channels</t>
+  </si>
+  <si>
+    <t>Channels Handle</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Num of Employes</t>
+  </si>
+  <si>
+    <t>Stock Symbol</t>
+  </si>
+  <si>
+    <t>Annual Revenue</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>TechCenture Academy</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>techcentureacademy.com</t>
+  </si>
+  <si>
+    <t>123 Main St</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>techcentureacademy@gmail.com</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>@TechCentureAcademy</t>
+  </si>
+  <si>
+    <t>TCA</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>All Day</t>
+  </si>
+  <si>
+    <t>Deal</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Reminder Time</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>start meeting date</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>before time</t>
+  </si>
+  <si>
+    <t>alert Via</t>
+  </si>
+  <si>
+    <t>reminder time</t>
+  </si>
+  <si>
+    <t>Anual General Meeting</t>
+  </si>
+  <si>
+    <t>Important</t>
+  </si>
+  <si>
+    <t>Review product testimonials document (10 min)
+Discuss the content you want to include on the web page (10 min, @Name)
+Present sample designs for the web page (15 min, @Name)
+Share suggestions and vote on the website design (10 min)</t>
+  </si>
+  <si>
+    <t>34 Main Street, Mc Lean, VA, 22102</t>
+  </si>
+  <si>
+    <t>anual</t>
+  </si>
+  <si>
+    <t>check all anual reports</t>
+  </si>
+  <si>
+    <t>Adam Lee</t>
+  </si>
+  <si>
+    <t>Tech Centure</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>10 Minutes</t>
+  </si>
+  <si>
+    <t>15 minutes</t>
+  </si>
+  <si>
+    <t>tech centure</t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Close Date</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Commission</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Next Steps</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Kevin Lee</t>
+  </si>
+  <si>
+    <t>techCenture</t>
+  </si>
+  <si>
+    <t>QA Course</t>
+  </si>
+  <si>
+    <t>Prepare all matirials for this course</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>You create Next Steps</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Online</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.75"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -242,60 +525,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -303,16 +532,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,14 +556,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,8 +586,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,7 +603,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,6 +623,42 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -386,25 +669,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,19 +795,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,133 +825,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,21 +860,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -604,50 +872,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,162 +906,240 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1155,8 +1462,8 @@
   <sheetPr/>
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AK5" sqref="AK5"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
@@ -1301,10 +1608,10 @@
       <c r="F2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="7"/>
       <c r="I2" t="s">
         <v>43</v>
       </c>
@@ -1317,7 +1624,7 @@
       <c r="L2" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="7" t="s">
         <v>47</v>
       </c>
       <c r="O2" t="s">
@@ -1422,14 +1729,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1438,14 +1756,448 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="7.1875" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="13.5625" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="8" max="9" width="12.4375" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="18.5625" customWidth="1"/>
+    <col min="12" max="12" width="29.4375" customWidth="1"/>
+    <col min="13" max="13" width="10.125" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
+    <col min="16" max="16" width="14.5625" customWidth="1"/>
+    <col min="17" max="17" width="21.5" customWidth="1"/>
+    <col min="27" max="27" width="9.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="6">
+        <v>22132</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2">
+        <v>2026547833</v>
+      </c>
+      <c r="K2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>102</v>
+      </c>
+      <c r="R2" t="s">
+        <v>99</v>
+      </c>
+      <c r="S2" s="8">
+        <v>120</v>
+      </c>
+      <c r="T2" t="s">
+        <v>103</v>
+      </c>
+      <c r="U2" s="9">
+        <v>700000</v>
+      </c>
+      <c r="V2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" t="s">
+        <v>104</v>
+      </c>
+      <c r="X2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA2">
+        <v>12983455</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" display="techcentureacademy@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <cols>
+    <col min="3" max="6" width="24.46875" customWidth="1"/>
+    <col min="14" max="14" width="10.4375" customWidth="1"/>
+    <col min="16" max="16" width="12.5625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="290" customHeight="1" spans="1:17">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2">
+        <v>2984573</v>
+      </c>
+      <c r="J2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="11.3125" customWidth="1"/>
+    <col min="5" max="5" width="30.4375" customWidth="1"/>
+    <col min="12" max="12" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>4500</v>
+      </c>
+      <c r="H2">
+        <v>1500</v>
+      </c>
+      <c r="I2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
